--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_laag.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_laag.xlsx
@@ -400,25 +400,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.4168062227714128</v>
+        <v>0.4165500938170587</v>
       </c>
       <c r="C2">
-        <v>0.452336501409103</v>
+        <v>0.4532998755493539</v>
       </c>
       <c r="D2">
-        <v>0.8378114757655399</v>
+        <v>0.8397313451970363</v>
       </c>
       <c r="E2">
-        <v>0.4348866587444911</v>
+        <v>0.4349759063693696</v>
       </c>
       <c r="F2">
-        <v>0.4190222530767521</v>
+        <v>0.4187560232757783</v>
       </c>
       <c r="G2">
-        <v>0.5289418159491108</v>
+        <v>0.5292044909545227</v>
       </c>
       <c r="H2">
-        <v>0.4361190080880371</v>
+        <v>0.4360621853365316</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -426,25 +426,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.4428153116307423</v>
+        <v>0.4425011968473371</v>
       </c>
       <c r="C3">
-        <v>0.472889442778751</v>
+        <v>0.4728680731960298</v>
       </c>
       <c r="D3">
-        <v>0.7491810824101001</v>
+        <v>0.7676640602148203</v>
       </c>
       <c r="E3">
-        <v>0.4499494235131434</v>
+        <v>0.4495895168240502</v>
       </c>
       <c r="F3">
-        <v>0.4438231051522661</v>
+        <v>0.4435718024875882</v>
       </c>
       <c r="G3">
-        <v>0.5333393084653052</v>
+        <v>0.5348675326294656</v>
       </c>
       <c r="H3">
-        <v>0.4504908731032274</v>
+        <v>0.450039492624489</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -452,25 +452,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.371548313222092</v>
+        <v>0.3717759532087446</v>
       </c>
       <c r="C4">
-        <v>0.4957214609243037</v>
+        <v>0.4930149867371041</v>
       </c>
       <c r="D4">
-        <v>0.4807543257982417</v>
+        <v>0.4743663168598267</v>
       </c>
       <c r="E4">
-        <v>0.4136082223207384</v>
+        <v>0.4126039193304918</v>
       </c>
       <c r="F4">
-        <v>0.3748379235421312</v>
+        <v>0.3750959194988736</v>
       </c>
       <c r="G4">
-        <v>0.4782233618025287</v>
+        <v>0.4753858453573038</v>
       </c>
       <c r="H4">
-        <v>0.4149846094840402</v>
+        <v>0.4139473131987446</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -478,25 +478,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.4803241244709264</v>
+        <v>0.4802277040075707</v>
       </c>
       <c r="C5">
-        <v>0.5766696705925596</v>
+        <v>0.5775338682106308</v>
       </c>
       <c r="D5">
-        <v>0.3616861622716404</v>
+        <v>0.364676707402917</v>
       </c>
       <c r="E5">
-        <v>0.4739640050070102</v>
+        <v>0.4740925553094573</v>
       </c>
       <c r="F5">
-        <v>0.4794230326388673</v>
+        <v>0.479423323321474</v>
       </c>
       <c r="G5">
-        <v>0.5317623844112157</v>
+        <v>0.5339142996764678</v>
       </c>
       <c r="H5">
-        <v>0.4736672948114604</v>
+        <v>0.473703034265991</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -504,25 +504,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.4707978063686589</v>
+        <v>0.4707275492917793</v>
       </c>
       <c r="C6">
-        <v>0.5642242463592838</v>
+        <v>0.5646114238160951</v>
       </c>
       <c r="D6">
-        <v>0.2812701519277127</v>
+        <v>0.2923816395688805</v>
       </c>
       <c r="E6">
-        <v>0.4691129964378711</v>
+        <v>0.4692799780971428</v>
       </c>
       <c r="F6">
-        <v>0.4702994845470164</v>
+        <v>0.4703025743668272</v>
       </c>
       <c r="G6">
-        <v>0.5040228904184106</v>
+        <v>0.5062968331428027</v>
       </c>
       <c r="H6">
-        <v>0.4689218050150707</v>
+        <v>0.4689871014179974</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -530,25 +530,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.4946652219798439</v>
+        <v>0.4945077918741457</v>
       </c>
       <c r="C7">
-        <v>0.6214482023948176</v>
+        <v>0.6222607695612322</v>
       </c>
       <c r="D7">
-        <v>0.3212273244754845</v>
+        <v>0.328609636718072</v>
       </c>
       <c r="E7">
-        <v>0.4811664850391677</v>
+        <v>0.481179764654688</v>
       </c>
       <c r="F7">
-        <v>0.4934469514138685</v>
+        <v>0.4933860710767114</v>
       </c>
       <c r="G7">
-        <v>0.5599693610635161</v>
+        <v>0.5625672726102521</v>
       </c>
       <c r="H7">
-        <v>0.4807896048221995</v>
+        <v>0.4807044994505518</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -556,25 +556,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.4303720629153217</v>
+        <v>0.4303344470155975</v>
       </c>
       <c r="C8">
-        <v>0.2517175552438042</v>
+        <v>0.2492231869568524</v>
       </c>
       <c r="D8">
-        <v>0.195381407137015</v>
+        <v>0.1935278923803382</v>
       </c>
       <c r="E8">
-        <v>0.4171460158844117</v>
+        <v>0.4171685643628851</v>
       </c>
       <c r="F8">
-        <v>0.429087980960973</v>
+        <v>0.4291178983441817</v>
       </c>
       <c r="G8">
-        <v>0.2590151784712137</v>
+        <v>0.2571093819663559</v>
       </c>
       <c r="H8">
-        <v>0.416763596750062</v>
+        <v>0.4166872841406259</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -582,25 +582,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.4981935091878181</v>
+        <v>0.4982263498511468</v>
       </c>
       <c r="C9">
-        <v>0.5288053679513205</v>
+        <v>0.5286358997867628</v>
       </c>
       <c r="D9">
-        <v>0.572720074435875</v>
+        <v>0.5673291140965486</v>
       </c>
       <c r="E9">
-        <v>0.4754383681321449</v>
+        <v>0.4756995253731762</v>
       </c>
       <c r="F9">
-        <v>0.4971233201947855</v>
+        <v>0.4972499334998906</v>
       </c>
       <c r="G9">
-        <v>0.4968606559146112</v>
+        <v>0.4971649692636496</v>
       </c>
       <c r="H9">
-        <v>0.4752164786658356</v>
+        <v>0.4753935026063243</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -608,25 +608,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.512485839212741</v>
+        <v>0.5123575806189912</v>
       </c>
       <c r="C10">
-        <v>0.5945367624220956</v>
+        <v>0.5960745203152207</v>
       </c>
       <c r="D10">
-        <v>0.4308355960035688</v>
+        <v>0.4268077567395996</v>
       </c>
       <c r="E10">
-        <v>0.484751927323666</v>
+        <v>0.4850680614742685</v>
       </c>
       <c r="F10">
-        <v>0.511133102358127</v>
+        <v>0.5111134471564462</v>
       </c>
       <c r="G10">
-        <v>0.5922407218676889</v>
+        <v>0.5948536767995212</v>
       </c>
       <c r="H10">
-        <v>0.4846249650250242</v>
+        <v>0.4848457968482907</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -634,25 +634,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.5076452670761501</v>
+        <v>0.5075664387102803</v>
       </c>
       <c r="C11">
-        <v>0.5973361910505895</v>
+        <v>0.5990363700050438</v>
       </c>
       <c r="D11">
-        <v>0.371037154377327</v>
+        <v>0.3745725955835346</v>
       </c>
       <c r="E11">
-        <v>0.484298495464323</v>
+        <v>0.4846872260551944</v>
       </c>
       <c r="F11">
-        <v>0.50632376375632</v>
+        <v>0.5063591113775412</v>
       </c>
       <c r="G11">
-        <v>0.58501569800617</v>
+        <v>0.5887919840217942</v>
       </c>
       <c r="H11">
-        <v>0.4841154737315502</v>
+        <v>0.4844162104220959</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -660,25 +660,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.4736956242698037</v>
+        <v>0.4733464200831813</v>
       </c>
       <c r="C12">
-        <v>0.6109866873509028</v>
+        <v>0.6112096612008782</v>
       </c>
       <c r="D12">
-        <v>0.09743285495036862</v>
+        <v>0.09205845841638884</v>
       </c>
       <c r="E12">
-        <v>0.4753590232847521</v>
+        <v>0.4751725270085909</v>
       </c>
       <c r="F12">
-        <v>0.473183479149469</v>
+        <v>0.4729543549636881</v>
       </c>
       <c r="G12">
-        <v>0.5401193627305241</v>
+        <v>0.5416740563608959</v>
       </c>
       <c r="H12">
-        <v>0.4751968545198842</v>
+        <v>0.4749351916719513</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -686,25 +686,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.5103204064180292</v>
+        <v>0.5100629818656438</v>
       </c>
       <c r="C13">
-        <v>0.5930795445787163</v>
+        <v>0.5945170037428875</v>
       </c>
       <c r="D13">
-        <v>0.3326875178591489</v>
+        <v>0.3250309684184554</v>
       </c>
       <c r="E13">
-        <v>0.483918062794079</v>
+        <v>0.4840699376551185</v>
       </c>
       <c r="F13">
-        <v>0.5089716261645763</v>
+        <v>0.508822791869401</v>
       </c>
       <c r="G13">
-        <v>0.5771402931937805</v>
+        <v>0.5790612702473026</v>
       </c>
       <c r="H13">
-        <v>0.483759456396974</v>
+        <v>0.4838181537396462</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_laag.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_laag.xlsx
@@ -400,25 +400,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.4165500938170587</v>
+        <v>0.4215077612063589</v>
       </c>
       <c r="C2">
-        <v>0.4532998755493539</v>
+        <v>0.4831499960849896</v>
       </c>
       <c r="D2">
-        <v>0.8397313451970363</v>
+        <v>0.936061968566015</v>
       </c>
       <c r="E2">
-        <v>0.4349759063693696</v>
+        <v>0.4427977997158401</v>
       </c>
       <c r="F2">
-        <v>0.4187560232757783</v>
+        <v>0.4238064353770303</v>
       </c>
       <c r="G2">
-        <v>0.5292044909545227</v>
+        <v>0.5582697136662433</v>
       </c>
       <c r="H2">
-        <v>0.4360621853365316</v>
+        <v>0.4439061019581645</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -426,25 +426,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.4425011968473371</v>
+        <v>0.4480068978269227</v>
       </c>
       <c r="C3">
-        <v>0.4728680731960298</v>
+        <v>0.5044256551842031</v>
       </c>
       <c r="D3">
-        <v>0.7676640602148203</v>
+        <v>0.8665389055668421</v>
       </c>
       <c r="E3">
-        <v>0.4495895168240502</v>
+        <v>0.4579252394377268</v>
       </c>
       <c r="F3">
-        <v>0.4435718024875882</v>
+        <v>0.4491482029126825</v>
       </c>
       <c r="G3">
-        <v>0.5348675326294656</v>
+        <v>0.5655495099421098</v>
       </c>
       <c r="H3">
-        <v>0.450039492624489</v>
+        <v>0.4583711003444285</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -452,25 +452,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.3717759532087446</v>
+        <v>0.3758487441489632</v>
       </c>
       <c r="C4">
-        <v>0.4930149867371041</v>
+        <v>0.5238386746799286</v>
       </c>
       <c r="D4">
-        <v>0.4743663168598267</v>
+        <v>0.5220626417996851</v>
       </c>
       <c r="E4">
-        <v>0.4126039193304918</v>
+        <v>0.419720720517589</v>
       </c>
       <c r="F4">
-        <v>0.3750959194988736</v>
+        <v>0.3792809828816487</v>
       </c>
       <c r="G4">
-        <v>0.4753858453573038</v>
+        <v>0.5016439196761076</v>
       </c>
       <c r="H4">
-        <v>0.4139473131987446</v>
+        <v>0.4210993042442046</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -478,25 +478,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.4802277040075707</v>
+        <v>0.4865354429621429</v>
       </c>
       <c r="C5">
-        <v>0.5775338682106308</v>
+        <v>0.6169197763115375</v>
       </c>
       <c r="D5">
-        <v>0.364676707402917</v>
+        <v>0.3813872425663433</v>
       </c>
       <c r="E5">
-        <v>0.4740925553094573</v>
+        <v>0.4832906298672929</v>
       </c>
       <c r="F5">
-        <v>0.479423323321474</v>
+        <v>0.4857654653692099</v>
       </c>
       <c r="G5">
-        <v>0.5339142996764678</v>
+        <v>0.5676563923828505</v>
       </c>
       <c r="H5">
-        <v>0.473703034265991</v>
+        <v>0.4828622496992143</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -504,25 +504,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.4707275492917793</v>
+        <v>0.4768322874951845</v>
       </c>
       <c r="C6">
-        <v>0.5646114238160951</v>
+        <v>0.6027649171051569</v>
       </c>
       <c r="D6">
-        <v>0.2923816395688805</v>
+        <v>0.3079900402865606</v>
       </c>
       <c r="E6">
-        <v>0.4692799780971428</v>
+        <v>0.4783105745515474</v>
       </c>
       <c r="F6">
-        <v>0.4703025743668272</v>
+        <v>0.4764492964914863</v>
       </c>
       <c r="G6">
-        <v>0.5062968331428027</v>
+        <v>0.5388075863301401</v>
       </c>
       <c r="H6">
-        <v>0.4689871014179974</v>
+        <v>0.4779840328492355</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -530,25 +530,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.4945077918741457</v>
+        <v>0.5011393183364669</v>
       </c>
       <c r="C7">
-        <v>0.6222607695612322</v>
+        <v>0.6641650190029394</v>
       </c>
       <c r="D7">
-        <v>0.328609636718072</v>
+        <v>0.343939944676575</v>
       </c>
       <c r="E7">
-        <v>0.481179764654688</v>
+        <v>0.4906483264618737</v>
       </c>
       <c r="F7">
-        <v>0.4933860710767114</v>
+        <v>0.5000459747052058</v>
       </c>
       <c r="G7">
-        <v>0.5625672726102521</v>
+        <v>0.5982250303273913</v>
       </c>
       <c r="H7">
-        <v>0.4807044994505518</v>
+        <v>0.4901282156980983</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -556,25 +556,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.4303344470155975</v>
+        <v>0.435592459430847</v>
       </c>
       <c r="C8">
-        <v>0.2492231869568524</v>
+        <v>0.2655549926585978</v>
       </c>
       <c r="D8">
-        <v>0.1935278923803382</v>
+        <v>0.2001018367653793</v>
       </c>
       <c r="E8">
-        <v>0.4171685643628851</v>
+        <v>0.4243618638141485</v>
       </c>
       <c r="F8">
-        <v>0.4291178983441817</v>
+        <v>0.4343970284190022</v>
       </c>
       <c r="G8">
-        <v>0.2571093819663559</v>
+        <v>0.2714089355384538</v>
       </c>
       <c r="H8">
-        <v>0.4166872841406259</v>
+        <v>0.4238535532033515</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -582,25 +582,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.4982263498511468</v>
+        <v>0.504913894623724</v>
       </c>
       <c r="C9">
-        <v>0.5286358997867628</v>
+        <v>0.5642381162279333</v>
       </c>
       <c r="D9">
-        <v>0.5673291140965486</v>
+        <v>0.5951509372527959</v>
       </c>
       <c r="E9">
-        <v>0.4756995253731762</v>
+        <v>0.4849542988768999</v>
       </c>
       <c r="F9">
-        <v>0.4972499334998906</v>
+        <v>0.503969351370773</v>
       </c>
       <c r="G9">
-        <v>0.4971649692636496</v>
+        <v>0.5289994715570385</v>
       </c>
       <c r="H9">
-        <v>0.4753935026063243</v>
+        <v>0.4846115032126928</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -608,25 +608,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.5123575806189912</v>
+        <v>0.5196008561227122</v>
       </c>
       <c r="C10">
-        <v>0.5960745203152207</v>
+        <v>0.6356681456836951</v>
       </c>
       <c r="D10">
-        <v>0.4268077567395996</v>
+        <v>0.4861278178718842</v>
       </c>
       <c r="E10">
-        <v>0.4850680614742685</v>
+        <v>0.4948320011300388</v>
       </c>
       <c r="F10">
-        <v>0.5111134471564462</v>
+        <v>0.5183759225260688</v>
       </c>
       <c r="G10">
-        <v>0.5948536767995212</v>
+        <v>0.6289567929654097</v>
       </c>
       <c r="H10">
-        <v>0.4848457968482907</v>
+        <v>0.4945581757406573</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -634,25 +634,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.5075664387102803</v>
+        <v>0.514738428575523</v>
       </c>
       <c r="C11">
-        <v>0.5990363700050438</v>
+        <v>0.6385936188818586</v>
       </c>
       <c r="D11">
-        <v>0.3745725955835346</v>
+        <v>0.42736632153673</v>
       </c>
       <c r="E11">
-        <v>0.4846872260551944</v>
+        <v>0.4944173734453672</v>
       </c>
       <c r="F11">
-        <v>0.5063591113775412</v>
+        <v>0.5135506171930706</v>
       </c>
       <c r="G11">
-        <v>0.5887919840217942</v>
+        <v>0.6226942439590685</v>
       </c>
       <c r="H11">
-        <v>0.4844162104220959</v>
+        <v>0.4940951649490354</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -660,25 +660,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.4733464200831813</v>
+        <v>0.4804581224628028</v>
       </c>
       <c r="C12">
-        <v>0.6112096612008782</v>
+        <v>0.6520636925742531</v>
       </c>
       <c r="D12">
-        <v>0.09205845841638884</v>
+        <v>0.1055451499878177</v>
       </c>
       <c r="E12">
-        <v>0.4751725270085909</v>
+        <v>0.4849535997546612</v>
       </c>
       <c r="F12">
-        <v>0.4729543549636881</v>
+        <v>0.4800854062337293</v>
       </c>
       <c r="G12">
-        <v>0.5416740563608959</v>
+        <v>0.5745126601619753</v>
       </c>
       <c r="H12">
-        <v>0.4749351916719513</v>
+        <v>0.4846629971429635</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -686,25 +686,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.5100629818656438</v>
+        <v>0.517283874555091</v>
       </c>
       <c r="C13">
-        <v>0.5945170037428875</v>
+        <v>0.634076234566488</v>
       </c>
       <c r="D13">
-        <v>0.3250309684184554</v>
+        <v>0.3713265864090526</v>
       </c>
       <c r="E13">
-        <v>0.4840699376551185</v>
+        <v>0.4938201023773014</v>
       </c>
       <c r="F13">
-        <v>0.508822791869401</v>
+        <v>0.5160629930030343</v>
       </c>
       <c r="G13">
-        <v>0.5790612702473026</v>
+        <v>0.6127564029467489</v>
       </c>
       <c r="H13">
-        <v>0.4838181537396462</v>
+        <v>0.4935167979719632</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_laag.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_laag.xlsx
@@ -415,7 +415,7 @@
         <v>0.4238064353770303</v>
       </c>
       <c r="G2">
-        <v>0.5582697136662433</v>
+        <v>0.5582697136662432</v>
       </c>
       <c r="H2">
         <v>0.4439061019581645</v>
@@ -444,7 +444,7 @@
         <v>0.5655495099421098</v>
       </c>
       <c r="H3">
-        <v>0.4583711003444285</v>
+        <v>0.4583711003444286</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -452,25 +452,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.3758487441489632</v>
+        <v>0.3758487441489631</v>
       </c>
       <c r="C4">
-        <v>0.5238386746799286</v>
+        <v>0.5238386746799287</v>
       </c>
       <c r="D4">
         <v>0.5220626417996851</v>
       </c>
       <c r="E4">
-        <v>0.419720720517589</v>
+        <v>0.4197207205175891</v>
       </c>
       <c r="F4">
         <v>0.3792809828816487</v>
       </c>
       <c r="G4">
-        <v>0.5016439196761076</v>
+        <v>0.5016439196761074</v>
       </c>
       <c r="H4">
-        <v>0.4210993042442046</v>
+        <v>0.4210993042442047</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -493,10 +493,10 @@
         <v>0.4857654653692099</v>
       </c>
       <c r="G5">
-        <v>0.5676563923828505</v>
+        <v>0.5676563923828503</v>
       </c>
       <c r="H5">
-        <v>0.4828622496992143</v>
+        <v>0.4828622496992144</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -522,7 +522,7 @@
         <v>0.5388075863301401</v>
       </c>
       <c r="H6">
-        <v>0.4779840328492355</v>
+        <v>0.4779840328492356</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -530,10 +530,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.5011393183364669</v>
+        <v>0.5011393183364667</v>
       </c>
       <c r="C7">
-        <v>0.6641650190029394</v>
+        <v>0.6641650190029396</v>
       </c>
       <c r="D7">
         <v>0.343939944676575</v>
@@ -545,7 +545,7 @@
         <v>0.5000459747052058</v>
       </c>
       <c r="G7">
-        <v>0.5982250303273913</v>
+        <v>0.5982250303273912</v>
       </c>
       <c r="H7">
         <v>0.4901282156980983</v>
@@ -559,7 +559,7 @@
         <v>0.435592459430847</v>
       </c>
       <c r="C8">
-        <v>0.2655549926585978</v>
+        <v>0.2655549926585977</v>
       </c>
       <c r="D8">
         <v>0.2001018367653793</v>
@@ -568,13 +568,13 @@
         <v>0.4243618638141485</v>
       </c>
       <c r="F8">
-        <v>0.4343970284190022</v>
+        <v>0.4343970284190021</v>
       </c>
       <c r="G8">
-        <v>0.2714089355384538</v>
+        <v>0.2714089355384537</v>
       </c>
       <c r="H8">
-        <v>0.4238535532033515</v>
+        <v>0.4238535532033516</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -585,7 +585,7 @@
         <v>0.504913894623724</v>
       </c>
       <c r="C9">
-        <v>0.5642381162279333</v>
+        <v>0.5642381162279334</v>
       </c>
       <c r="D9">
         <v>0.5951509372527959</v>
@@ -626,7 +626,7 @@
         <v>0.6289567929654097</v>
       </c>
       <c r="H10">
-        <v>0.4945581757406573</v>
+        <v>0.4945581757406574</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -634,10 +634,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.514738428575523</v>
+        <v>0.5147384285755229</v>
       </c>
       <c r="C11">
-        <v>0.6385936188818586</v>
+        <v>0.6385936188818588</v>
       </c>
       <c r="D11">
         <v>0.42736632153673</v>
@@ -649,10 +649,10 @@
         <v>0.5135506171930706</v>
       </c>
       <c r="G11">
-        <v>0.6226942439590685</v>
+        <v>0.6226942439590684</v>
       </c>
       <c r="H11">
-        <v>0.4940951649490354</v>
+        <v>0.4940951649490355</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -675,7 +675,7 @@
         <v>0.4800854062337293</v>
       </c>
       <c r="G12">
-        <v>0.5745126601619753</v>
+        <v>0.5745126601619752</v>
       </c>
       <c r="H12">
         <v>0.4846629971429635</v>
@@ -701,10 +701,10 @@
         <v>0.5160629930030343</v>
       </c>
       <c r="G13">
-        <v>0.6127564029467489</v>
+        <v>0.6127564029467488</v>
       </c>
       <c r="H13">
-        <v>0.4935167979719632</v>
+        <v>0.4935167979719633</v>
       </c>
     </row>
   </sheetData>
